--- a/IMB01J2_Cenarios/Resultados_AG_IMB01J2_Cenarios.xlsx
+++ b/IMB01J2_Cenarios/Resultados_AG_IMB01J2_Cenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFBA\IC-storage\AG_IMB01J2\IMB01J2_Cenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D5B68-D150-42F1-9824-D73CA71299D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA4C0BB-93C0-45C6-806C-7A65F799E940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info das Simulacoes" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,8 +379,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4206269278510045E-2"/>
-          <c:y val="0.15557392607777645"/>
+          <c:x val="6.4206282831649697E-2"/>
+          <c:y val="0.14170425004996356"/>
           <c:w val="0.93535831861646745"/>
           <c:h val="0.82688711323446662"/>
         </c:manualLayout>
@@ -769,7 +769,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$3</c15:sqref>
@@ -798,7 +798,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$3:$Y$3</c15:sqref>
@@ -884,7 +884,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -897,7 +897,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$4</c15:sqref>
@@ -926,7 +926,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$4:$Y$4</c15:sqref>
@@ -940,7 +940,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -953,7 +953,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$5</c15:sqref>
@@ -984,7 +984,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$5:$Y$5</c15:sqref>
@@ -1070,7 +1070,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1083,7 +1083,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$6</c15:sqref>
@@ -1114,7 +1114,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$6:$Y$6</c15:sqref>
@@ -1200,7 +1200,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1213,7 +1213,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$7</c15:sqref>
@@ -1244,7 +1244,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$7:$Y$7</c15:sqref>
@@ -1330,7 +1330,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1343,7 +1343,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$8</c15:sqref>
@@ -1375,7 +1375,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$8:$Y$8</c15:sqref>
@@ -1461,7 +1461,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1474,7 +1474,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$9</c15:sqref>
@@ -1506,7 +1506,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$9:$Y$9</c15:sqref>
@@ -1592,7 +1592,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1605,7 +1605,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$11</c15:sqref>
@@ -1636,7 +1636,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$11:$Y$11</c15:sqref>
@@ -1722,7 +1722,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1735,7 +1735,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$12</c15:sqref>
@@ -1766,7 +1766,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$12:$Y$12</c15:sqref>
@@ -1780,7 +1780,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -1793,7 +1793,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$A$13</c15:sqref>
@@ -1824,7 +1824,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Info das Simulacoes'!$B$13:$Y$13</c15:sqref>
@@ -1838,7 +1838,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-7EC6-464C-8236-60E33F5FB180}"/>
                   </c:ext>
@@ -3427,23 +3427,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Curvas de Demanda Feeder'!$A$6</c:f>
+              <c:f>'Curvas de Demanda Feeder'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original (PV) 80%</c:v>
+                  <c:v>Original (PV) 40%</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
               <a:round/>
@@ -4036,597 +4037,599 @@
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Curvas de Demanda Feeder'!$B$6:$GK$6</c:f>
+              <c:f>'Curvas de Demanda Feeder'!$B$4:$GK$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="192"/>
                 <c:pt idx="0">
-                  <c:v>4506.6099999999997</c:v>
+                  <c:v>4118.5199999999904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4327.8999999999996</c:v>
+                  <c:v>3949.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4182.2299999999996</c:v>
+                  <c:v>3798.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4313.34</c:v>
+                  <c:v>3933.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4229.9399999999996</c:v>
+                  <c:v>3849.3999999999901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4171.8500000000004</c:v>
+                  <c:v>3798.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4188.1099999999997</c:v>
+                  <c:v>3816.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4253</c:v>
+                  <c:v>3865.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4134.3599999999997</c:v>
+                  <c:v>3757.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4154.29</c:v>
+                  <c:v>3775.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4059.26999999999</c:v>
+                  <c:v>3675.16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3904.39</c:v>
+                  <c:v>3516.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3940.1099999999901</c:v>
+                  <c:v>3556.96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3844.05</c:v>
+                  <c:v>3449.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4066.13</c:v>
+                  <c:v>3680.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4018.74</c:v>
+                  <c:v>3639.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3966.48</c:v>
+                  <c:v>3575.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4135.5199999999904</c:v>
+                  <c:v>3745.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3993.16</c:v>
+                  <c:v>3602.62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4050.91</c:v>
+                  <c:v>3663.83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3996.1</c:v>
+                  <c:v>3609.74999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4120.43</c:v>
+                  <c:v>3740</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4076.34</c:v>
+                  <c:v>3696.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3906.41</c:v>
+                  <c:v>3537.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4066.05</c:v>
+                  <c:v>3699.22999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4104.7299999999996</c:v>
+                  <c:v>3738.16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3581.85</c:v>
+                  <c:v>1494.011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3718.6</c:v>
+                  <c:v>1635.886</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3828.17</c:v>
+                  <c:v>1745.6399999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3311.99</c:v>
+                  <c:v>-473.16300000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3395.5299999999902</c:v>
+                  <c:v>-418.96799999999899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3608.8799999999901</c:v>
+                  <c:v>-209.78729999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3494.04</c:v>
+                  <c:v>-349.9325</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3597.54</c:v>
+                  <c:v>-254.117199999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3475.66</c:v>
+                  <c:v>-1809.0119999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3718.94</c:v>
+                  <c:v>-1569.9690000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3661.08</c:v>
+                  <c:v>-1650.8119999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3001.6170000000002</c:v>
+                  <c:v>-5145.26</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2831.2350000000001</c:v>
+                  <c:v>-5318.84</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2858.5709999999999</c:v>
+                  <c:v>-5302.65</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3015.8779999999902</c:v>
+                  <c:v>-5148.54</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2977.8809999999999</c:v>
+                  <c:v>-5180.6400000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2116.5990000000002</c:v>
+                  <c:v>-9894.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2085.2869999999998</c:v>
+                  <c:v>-9922.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2031.4349999999999</c:v>
+                  <c:v>-9985.7900000000009</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1861.7550000000001</c:v>
+                  <c:v>-11154.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1795.8419999999901</c:v>
+                  <c:v>-11215.96</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1676.201</c:v>
+                  <c:v>-11322.68</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1921.7639999999999</c:v>
+                  <c:v>-11087.449999999901</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1881.2359999999901</c:v>
+                  <c:v>-11127.91</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1711.26</c:v>
+                  <c:v>-11950.84</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1633.66</c:v>
+                  <c:v>-12023.67</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1720.626</c:v>
+                  <c:v>-11925</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1804.2059999999999</c:v>
+                  <c:v>-11841.93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2163.0810000000001</c:v>
+                  <c:v>-11518.64</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2046.7080000000001</c:v>
+                  <c:v>-11634.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1949.44</c:v>
+                  <c:v>-11718.45</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1881.5409999999999</c:v>
+                  <c:v>-11778.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1854.221</c:v>
+                  <c:v>-11949.63</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1876.7449999999999</c:v>
+                  <c:v>-11929.77</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1772.809</c:v>
+                  <c:v>-12021.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1942.92299999999</c:v>
+                  <c:v>-11515.49</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1942.0719999999999</c:v>
+                  <c:v>-11514.25</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1995.16299999999</c:v>
+                  <c:v>-11469.64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1962.991</c:v>
+                  <c:v>-11517.029999999901</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1918.374</c:v>
+                  <c:v>-11569.26</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2457.223</c:v>
+                  <c:v>-8676.8799999999992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2504.1370000000002</c:v>
+                  <c:v>-8630.11</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2545.0729999999999</c:v>
+                  <c:v>-8611.44</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3529.06</c:v>
+                  <c:v>-3442.87</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3466.51</c:v>
+                  <c:v>-3496.95</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3455.05</c:v>
+                  <c:v>-3509.24</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3761.16</c:v>
+                  <c:v>-3192.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3804.23</c:v>
+                  <c:v>-3145.5810000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4918.51</c:v>
+                  <c:v>2716.5360000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4921.21</c:v>
+                  <c:v>2737.5119999999902</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4780.71</c:v>
+                  <c:v>2622.768</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5228.83</c:v>
+                  <c:v>4729.34</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5300.59</c:v>
+                  <c:v>4821.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5235.12</c:v>
+                  <c:v>4754.63</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5201.78</c:v>
+                  <c:v>4727.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5165.34</c:v>
+                  <c:v>4692.8099999999904</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5145.3599999999997</c:v>
+                  <c:v>4682.0599999999904</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5290.75</c:v>
+                  <c:v>4843.13</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5111.26</c:v>
+                  <c:v>4664.32</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5037.7</c:v>
+                  <c:v>4587.96</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4905.1400000000003</c:v>
+                  <c:v>4481.17</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4764.45</c:v>
+                  <c:v>4364.95</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4865.34</c:v>
+                  <c:v>4466.2299999999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4886.34</c:v>
+                  <c:v>4495.87</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4788.5200000000004</c:v>
+                  <c:v>4411.51</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4743.93</c:v>
+                  <c:v>4363.84</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4656.75</c:v>
+                  <c:v>4279.6399999999903</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4701.6499999999996</c:v>
+                  <c:v>4319.07</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4599.8599999999997</c:v>
+                  <c:v>4214.25</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4586.2299999999996</c:v>
+                  <c:v>4201.74</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4506.6499999999996</c:v>
+                  <c:v>4118.55</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4327.8999999999996</c:v>
+                  <c:v>3949.72</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4182.2299999999996</c:v>
+                  <c:v>3798.44</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4313.34</c:v>
+                  <c:v>3933.16</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4229.9399999999996</c:v>
+                  <c:v>3849.3999999999901</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4171.8500000000004</c:v>
+                  <c:v>3798.93</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4188.1099999999997</c:v>
+                  <c:v>3816.24</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4253</c:v>
+                  <c:v>3865.8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4134.3599999999997</c:v>
+                  <c:v>3757.16</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4154.29</c:v>
+                  <c:v>3775.63</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4059.26999999999</c:v>
+                  <c:v>3675.16</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3904.39</c:v>
+                  <c:v>3516.92</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3940.1099999999901</c:v>
+                  <c:v>3556.96</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3844.05</c:v>
+                  <c:v>3449.91</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4066.13</c:v>
+                  <c:v>3680.6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4018.74</c:v>
+                  <c:v>3639.94</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3966.48</c:v>
+                  <c:v>3575.2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4135.5199999999904</c:v>
+                  <c:v>3745.27</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3993.16</c:v>
+                  <c:v>3602.62</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4050.91</c:v>
+                  <c:v>3663.83</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3996.1</c:v>
+                  <c:v>3609.74999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4120.43</c:v>
+                  <c:v>3740</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4076.34</c:v>
+                  <c:v>3696.29</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3906.41</c:v>
+                  <c:v>3537.77</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4066.05</c:v>
+                  <c:v>3699.22999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4104.7299999999996</c:v>
+                  <c:v>3738.16</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3581.85</c:v>
+                  <c:v>1494.011</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3718.6</c:v>
+                  <c:v>1635.886</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3828.17</c:v>
+                  <c:v>1745.6399999999901</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3311.99</c:v>
+                  <c:v>-473.16300000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3395.5299999999902</c:v>
+                  <c:v>-418.96799999999899</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3608.8799999999901</c:v>
+                  <c:v>-209.78729999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3494.04</c:v>
+                  <c:v>-349.9325</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3597.54</c:v>
+                  <c:v>-254.117199999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3475.66</c:v>
+                  <c:v>-1809.0119999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3718.94</c:v>
+                  <c:v>-1569.9690000000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3661.08</c:v>
+                  <c:v>-1650.8119999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3001.6170000000002</c:v>
+                  <c:v>-5145.26</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2831.2350000000001</c:v>
+                  <c:v>-5318.84</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2858.5709999999999</c:v>
+                  <c:v>-5302.65</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3015.8779999999902</c:v>
+                  <c:v>-5148.54</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2977.8809999999999</c:v>
+                  <c:v>-5180.6400000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2116.5990000000002</c:v>
+                  <c:v>-9894.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2085.2869999999998</c:v>
+                  <c:v>-9922.5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2031.4349999999999</c:v>
+                  <c:v>-9985.7900000000009</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1861.7550000000001</c:v>
+                  <c:v>-11154.9</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1795.8419999999901</c:v>
+                  <c:v>-11215.96</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1676.201</c:v>
+                  <c:v>-11322.68</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1921.7639999999999</c:v>
+                  <c:v>-11087.449999999901</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1881.2359999999901</c:v>
+                  <c:v>-11127.91</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1711.26</c:v>
+                  <c:v>-11950.84</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1633.66</c:v>
+                  <c:v>-12023.67</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1720.626</c:v>
+                  <c:v>-11925</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1804.2059999999999</c:v>
+                  <c:v>-11841.93</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2163.0810000000001</c:v>
+                  <c:v>-11518.64</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2046.7080000000001</c:v>
+                  <c:v>-11634.75</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1949.44</c:v>
+                  <c:v>-11718.45</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1881.5409999999999</c:v>
+                  <c:v>-11778.8</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1854.221</c:v>
+                  <c:v>-11949.63</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1876.7449999999999</c:v>
+                  <c:v>-11929.77</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1772.809</c:v>
+                  <c:v>-12021.9</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1942.92299999999</c:v>
+                  <c:v>-11515.49</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1942.0719999999999</c:v>
+                  <c:v>-11514.25</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1995.16299999999</c:v>
+                  <c:v>-11469.64</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1962.991</c:v>
+                  <c:v>-11517.029999999901</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1918.374</c:v>
+                  <c:v>-11569.26</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2457.223</c:v>
+                  <c:v>-8676.8799999999992</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2504.1370000000002</c:v>
+                  <c:v>-8630.11</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2545.0729999999999</c:v>
+                  <c:v>-8611.44</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3529.06</c:v>
+                  <c:v>-3442.87</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3466.51</c:v>
+                  <c:v>-3496.95</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3455.05</c:v>
+                  <c:v>-3509.24</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3761.16</c:v>
+                  <c:v>-3192.72</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3804.23</c:v>
+                  <c:v>-3145.5810000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4918.51</c:v>
+                  <c:v>2716.5360000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4921.21</c:v>
+                  <c:v>2737.5119999999902</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4780.71</c:v>
+                  <c:v>2622.768</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5228.83</c:v>
+                  <c:v>4729.34</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5300.59</c:v>
+                  <c:v>4821.78</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>5235.12</c:v>
+                  <c:v>4754.63</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5201.78</c:v>
+                  <c:v>4727.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5165.34</c:v>
+                  <c:v>4692.8099999999904</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5145.3599999999997</c:v>
+                  <c:v>4682.0599999999904</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>5290.75</c:v>
+                  <c:v>4843.13</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5111.26</c:v>
+                  <c:v>4664.32</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5037.7</c:v>
+                  <c:v>4587.96</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4905.1400000000003</c:v>
+                  <c:v>4481.17</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4764.45</c:v>
+                  <c:v>4364.95</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4865.34</c:v>
+                  <c:v>4466.2299999999996</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4886.34</c:v>
+                  <c:v>4495.87</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4788.5200000000004</c:v>
+                  <c:v>4411.51</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4743.93</c:v>
+                  <c:v>4363.84</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4656.75</c:v>
+                  <c:v>4279.6399999999903</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4701.6499999999996</c:v>
+                  <c:v>4319.07</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4599.8599999999997</c:v>
+                  <c:v>4214.25</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4586.2299999999996</c:v>
+                  <c:v>4201.74</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-9806-4AC5-9F07-8818AAE96F4A}"/>
+              <c16:uniqueId val="{00000014-9806-4AC5-9F07-8818AAE96F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4642,6 +4645,7 @@
                   <c:v>Sim9</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -5242,6 +5246,7 @@
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -5827,10 +5832,11 @@
                   <c:v>3706.1899999999901</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-9806-4AC5-9F07-8818AAE96F4A}"/>
             </c:ext>
@@ -5848,6 +5854,7 @@
                   <c:v>Sim13</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -6448,6 +6455,7 @@
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -7033,1270 +7041,13 @@
                   <c:v>3761.13</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000023-9806-4AC5-9F07-8818AAE96F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Curvas de Demanda Feeder'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sim14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Curvas de Demanda Feeder'!$B$1:$GK$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="192"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.75</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16.75</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17.75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>18.25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20.25</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20.75</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>21.75</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>22.25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23.25</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23.75</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>24.75</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>25.25</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>25.75</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>26.75</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>27.25</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>27.75</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>28.25</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>29.25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>29.75</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>30.25</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30.75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>31.75</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>32.75</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>34.25</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>34.75</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>35.25</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>35.75</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>36.25</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>36.75</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>37.25</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>37.75</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>38.25</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>38.75</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>39.25</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>39.75</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>40.25</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>41.25</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>41.75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>42.25</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>42.75</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>43.25</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44.25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44.75</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>45.25</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>45.75</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>46.25</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>47.25</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>47.75</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Curvas de Demanda Feeder'!$B$20:$GK$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="192"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-9806-4AC5-9F07-8818AAE96F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Curvas de Demanda Feeder'!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sim15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Curvas de Demanda Feeder'!$B$1:$GK$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="192"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.75</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16.75</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17.75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>18.25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20.25</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20.75</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>21.75</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>22.25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23.25</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23.75</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>24.75</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>25.25</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>25.75</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>26.75</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>27.25</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>27.75</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>28.25</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>29.25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>29.75</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>30.25</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30.75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>31.75</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>32.75</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>34.25</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>34.75</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>35.25</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>35.75</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>36.25</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>36.75</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>37.25</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>37.75</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>38.25</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>38.75</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>39.25</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>39.75</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>40.25</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>41.25</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>41.75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>42.25</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>42.75</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>43.25</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44.25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44.75</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>45.25</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>45.75</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>46.25</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>47.25</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>47.75</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Curvas de Demanda Feeder'!$B$21:$GK$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="192"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-9806-4AC5-9F07-8818AAE96F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9539,1235 +8290,11 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Curvas de Demanda Feeder'!$A$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Original (PV) 40%</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="192"/>
-                      <c:pt idx="0">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.75</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.75</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.25</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.5</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.75</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3.25</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>3.5</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>3.75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>4.25</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>4.5</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>4.75</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>5.25</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>5.5</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>5.75</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>6.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>6.5</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>6.75</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>7.25</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>7.75</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>8.25</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>8.5</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>8.75</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>9.25</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>9.5</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>9.75</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>10.25</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>10.5</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>10.75</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>11.25</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>11.5</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>11.75</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>12.25</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>12.5</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>12.75</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>13.25</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>13.5</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>13.75</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>14.25</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>14.5</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>14.75</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>15.25</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>15.5</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>15.75</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>16.25</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>16.5</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>16.75</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>17.25</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>17.5</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>17.75</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>18.25</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>18.5</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>18.75</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>19.25</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>19.5</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>19.75</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>20.25</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>20.5</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>20.75</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>21.25</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>21.5</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>21.75</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>22.25</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>22.5</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>22.75</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>23.25</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>23.5</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>23.75</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>24.25</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>24.5</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>24.75</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>25.25</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>25.5</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>25.75</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>26.25</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>26.5</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>26.75</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>27.25</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>27.5</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>27.75</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>28.25</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>28.5</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>28.75</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>29.25</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>29.5</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>29.75</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>30.25</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>30.5</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>30.75</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>31.25</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>31.5</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>31.75</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>32.25</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>32.5</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>32.75</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>33.25</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>33.5</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>33.75</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>34.25</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>34.5</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>34.75</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>35.25</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>35.5</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>35.75</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>36.25</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>36.5</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>36.75</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>37.25</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>37.5</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>37.75</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>38.25</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>38.5</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>38.75</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>39.25</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>39.5</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>39.75</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>40.25</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>40.5</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>40.75</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>41.25</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>41.5</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>41.75</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>42.25</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>42.5</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>42.75</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>43.25</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>43.5</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>43.75</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>44.25</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>44.5</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>44.75</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>45.25</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>45.5</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>45.75</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>46.25</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>46.5</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>46.75</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>47.25</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>47.5</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>47.75</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>48</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Curvas de Demanda Feeder'!$B$4:$GK$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="192"/>
-                      <c:pt idx="0">
-                        <c:v>4506.6099999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4327.8999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4182.2299999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4313.34</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4229.9399999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4171.8500000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4188.1099999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4253</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4134.3599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4154.29</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4059.26999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3904.39</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3940.1099999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>3844.05</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>4066.13</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4018.74</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>3966.48</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>4135.5199999999904</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3993.16</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4050.91</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3996.1</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>4120.43</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>4076.34</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>3906.41</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>4066.05</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>4104.7299999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>3742.75</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>3879.18</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>3988.69</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3633</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3716.1899999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3929.22</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3814.24</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3917.77</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3934.18</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>4175.96</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4118.5</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3743.63</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3573.22</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>3600.79</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>3757.22</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>3719.99</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>3264.7599999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>3233.5</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>3178.92</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>3120.76</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>3055.1190000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>2935.3180000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>3181.39</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>3140.8099999999899</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>3045.3780000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>2967.3589999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>3055.212</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>3138.18</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>3494.6</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>3378.97</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>3283.26999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>3215.05</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>3204.13</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>3226.5</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>3123.58</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>3256.08</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>3254.63</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>3307.52</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>3274.63</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>3230.26</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>3506.9399999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>3553.08</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>3593.22</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>4146.6000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>4084.72</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>4072.5699999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>4376.7199999999903</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>4419.0599999999904</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>5076.67</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>5079.47</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>4939.42</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>5228.83</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>5300.59</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>5235.12</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>5201.78</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>5165.34</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>5145.3599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>5290.75</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>5111.26</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>5037.7</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>4905.1400000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>4764.45</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>4865.34</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>4886.34</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>4788.5200000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>4743.93</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>4656.75</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>4701.6499999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>4599.8599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>4586.2299999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>4506.6499999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>4327.8999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>4182.2299999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>4313.34</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>4229.9399999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>4171.8500000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>4188.1099999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>4253</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>4134.3599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>4154.29</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>4059.26999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>3904.39</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>3940.1099999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>3844.05</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>4066.13</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>4018.74</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>3966.48</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>4135.5199999999904</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>3993.16</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>4050.91</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>3996.1</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>4120.43</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>4076.34</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>3906.41</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>4066.05</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>4104.7299999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>3742.75</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>3879.18</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>3988.69</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>3633</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>3716.1899999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>3929.22</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>3814.24</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>3917.77</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>3934.18</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>4175.96</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>4118.5</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>3743.63</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>3573.22</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>3600.79</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>3757.22</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>3719.99</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>3264.7599999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>3233.5</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>3178.92</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>3120.76</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>3055.1190000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>2935.3180000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>3181.39</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>3140.8099999999899</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>3045.3780000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>2967.3589999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>3055.212</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>3138.18</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>3494.6</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>3378.97</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>3283.26999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>3215.05</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>3204.13</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>3226.5</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>3123.58</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>3256.08</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>3254.63</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>3307.52</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>3274.63</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>3230.26</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>3506.9399999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>3553.08</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>3593.22</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>4146.6000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>4084.72</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>4072.5699999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>4376.7199999999903</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>4419.0599999999904</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>5076.67</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>5079.47</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>4939.42</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>5228.83</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>5300.59</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>5235.12</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>5201.78</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>5165.34</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>5145.3599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>5290.75</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>5111.26</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>5037.7</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>4905.1400000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>4764.45</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>4865.34</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>4886.34</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>4788.5200000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>4743.93</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>4656.75</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>4701.6499999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>4599.8599999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>4586.2299999999996</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000014-9806-4AC5-9F07-8818AAE96F4A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$5</c15:sqref>
@@ -10797,7 +8324,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -11388,7 +8915,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$5:$GK$5</c15:sqref>
@@ -11978,9 +9505,1233 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-9806-4AC5-9F07-8818AAE96F4A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Original (PV) 80%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                      <c:pt idx="0">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.25</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.75</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>6.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>6.75</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7.75</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8.25</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8.75</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>9.25</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9.75</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10.25</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10.75</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>11.25</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>11.75</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>12.25</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>12.75</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>13.25</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>13.75</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>14.25</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>14.75</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>15.25</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>15.75</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>16.25</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>16.75</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>17.25</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>17.75</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>18.25</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>18.75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>19.25</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>19.75</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>20.25</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>20.75</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>21.25</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>21.75</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>22.25</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>23.25</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>23.75</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>24.25</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>24.75</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>25.25</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>25.75</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>26.25</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>26.75</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>27.25</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>27.75</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>28.25</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>28.75</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>29.25</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>29.75</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>30.25</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>30.5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>30.75</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>31.25</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>31.5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>31.75</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>32.25</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>32.5</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>32.75</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>33.25</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>33.75</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>34.25</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>34.5</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>34.75</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>35.25</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>35.75</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>36.25</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>36.5</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>36.75</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>37.25</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>37.5</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>37.75</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>38.25</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>38.5</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>38.75</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>39.25</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>39.5</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>39.75</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>40.25</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>40.5</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>40.75</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>41.25</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>41.5</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>41.75</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>42.25</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>42.5</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>42.75</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>43.25</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>43.5</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>43.75</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>44.25</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>44.5</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>44.75</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45.25</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45.5</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45.75</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>46.25</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>46.5</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>46.75</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>47.25</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>47.5</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>47.75</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>48</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$6:$GK$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                      <c:pt idx="0">
+                        <c:v>4506.6099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4327.8999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4182.2299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4313.34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4229.9399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4171.8500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4188.1099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4253</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4134.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4154.29</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4059.26999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3904.39</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3940.1099999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3844.05</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4066.13</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4018.74</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3966.48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4135.5199999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3993.16</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4050.91</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3996.1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4120.43</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4076.34</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3906.41</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4066.05</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4104.7299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3581.85</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3718.6</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3828.17</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3311.99</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3395.5299999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3608.8799999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3494.04</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3597.54</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3475.66</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3718.94</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3661.08</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3001.6170000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2831.2350000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2858.5709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3015.8779999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2977.8809999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2116.5990000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2085.2869999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2031.4349999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1861.7550000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1795.8419999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1676.201</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1921.7639999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1881.2359999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1711.26</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1633.66</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1720.626</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1804.2059999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2163.0810000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2046.7080000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1949.44</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1881.5409999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1854.221</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1876.7449999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1772.809</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1942.92299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1942.0719999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1995.16299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1962.991</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1918.374</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2457.223</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2504.1370000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2545.0729999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3529.06</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3466.51</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3455.05</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3761.16</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3804.23</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>4918.51</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>4921.21</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>4780.71</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>5228.83</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>5300.59</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>5235.12</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>5201.78</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>5165.34</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>5145.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>5290.75</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>5111.26</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>5037.7</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4905.1400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>4764.45</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>4865.34</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>4886.34</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>4788.5200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>4743.93</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>4656.75</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>4701.6499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>4599.8599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>4586.2299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>4506.6499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>4327.8999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>4182.2299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>4313.34</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>4229.9399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>4171.8500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>4188.1099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>4253</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>4134.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>4154.29</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>4059.26999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>3904.39</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>3940.1099999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>3844.05</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>4066.13</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>4018.74</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>3966.48</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>4135.5199999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>3993.16</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>4050.91</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>3996.1</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>4120.43</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>4076.34</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>3906.41</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>4066.05</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>4104.7299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>3581.85</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>3718.6</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>3828.17</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>3311.99</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>3395.5299999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>3608.8799999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>3494.04</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3597.54</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3475.66</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3718.94</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>3661.08</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>3001.6170000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>2831.2350000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>2858.5709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>3015.8779999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2977.8809999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2116.5990000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>2085.2869999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2031.4349999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>1861.7550000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>1795.8419999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>1676.201</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>1921.7639999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>1881.2359999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>1711.26</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>1633.66</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>1720.626</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>1804.2059999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>2163.0810000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>2046.7080000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>1949.44</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>1881.5409999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>1854.221</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>1876.7449999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>1772.809</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>1942.92299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>1942.0719999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>1995.16299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>1962.991</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>1918.374</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>2457.223</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>2504.1370000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>2545.0729999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>3529.06</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>3466.51</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>3455.05</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>3761.16</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>3804.23</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>4918.51</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>4921.21</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>4780.71</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>5228.83</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>5300.59</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>5235.12</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>5201.78</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>5165.34</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>5145.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>5290.75</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>5111.26</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>5037.7</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>4905.1400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>4764.45</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>4865.34</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>4886.34</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>4788.5200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>4743.93</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>4656.75</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>4701.6499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>4599.8599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>4586.2299999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -11991,7 +10742,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$7</c15:sqref>
@@ -12020,7 +10771,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -12611,7 +11362,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$7:$GK$7</c15:sqref>
@@ -13201,7 +11952,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -13214,7 +11965,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$8</c15:sqref>
@@ -13245,7 +11996,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -13836,7 +12587,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$8:$GK$8</c15:sqref>
@@ -14426,7 +13177,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -14439,7 +13190,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$9</c15:sqref>
@@ -14470,7 +13221,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -15061,7 +13812,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$9:$GK$9</c15:sqref>
@@ -15075,7 +13826,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000019-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -15088,7 +13839,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$10</c15:sqref>
@@ -15119,7 +13870,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -15710,7 +14461,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$10:$GK$10</c15:sqref>
@@ -16300,7 +15051,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -16313,7 +15064,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$11</c15:sqref>
@@ -16344,7 +15095,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -16935,7 +15686,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$11:$GK$11</c15:sqref>
@@ -17525,7 +16276,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -17538,7 +16289,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$12</c15:sqref>
@@ -17569,7 +16320,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -18160,7 +16911,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$12:$GK$12</c15:sqref>
@@ -18750,7 +17501,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001C-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -18763,7 +17514,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$13</c15:sqref>
@@ -18794,7 +17545,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -19385,7 +18136,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$13:$GK$13</c15:sqref>
@@ -19975,7 +18726,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001D-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -19988,7 +18739,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$14</c15:sqref>
@@ -20020,7 +18771,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -20611,7 +19362,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$14:$GK$14</c15:sqref>
@@ -21201,7 +19952,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001E-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -21214,7 +19965,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$16</c15:sqref>
@@ -21246,7 +19997,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -21837,7 +20588,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$16:$GK$16</c15:sqref>
@@ -22427,7 +21178,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000020-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -22440,7 +21191,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$17</c15:sqref>
@@ -22472,7 +21223,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -23063,7 +21814,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$17:$GK$17</c15:sqref>
@@ -23077,7 +21828,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000021-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
@@ -23090,7 +21841,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$A$18</c15:sqref>
@@ -23122,7 +21873,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
@@ -23713,7 +22464,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Curvas de Demanda Feeder'!$B$18:$GK$18</c15:sqref>
@@ -23727,9 +22478,1307 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000022-9806-4AC5-9F07-8818AAE96F4A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sim14</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                      <c:pt idx="0">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.25</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.75</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>6.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>6.75</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7.75</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8.25</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8.75</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>9.25</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9.75</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10.25</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10.75</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>11.25</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>11.75</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>12.25</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>12.75</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>13.25</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>13.75</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>14.25</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>14.75</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>15.25</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>15.75</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>16.25</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>16.75</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>17.25</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>17.75</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>18.25</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>18.75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>19.25</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>19.75</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>20.25</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>20.75</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>21.25</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>21.75</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>22.25</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>23.25</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>23.75</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>24.25</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>24.75</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>25.25</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>25.75</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>26.25</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>26.75</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>27.25</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>27.75</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>28.25</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>28.75</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>29.25</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>29.75</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>30.25</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>30.5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>30.75</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>31.25</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>31.5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>31.75</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>32.25</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>32.5</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>32.75</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>33.25</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>33.75</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>34.25</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>34.5</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>34.75</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>35.25</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>35.75</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>36.25</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>36.5</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>36.75</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>37.25</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>37.5</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>37.75</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>38.25</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>38.5</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>38.75</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>39.25</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>39.5</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>39.75</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>40.25</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>40.5</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>40.75</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>41.25</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>41.5</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>41.75</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>42.25</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>42.5</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>42.75</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>43.25</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>43.5</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>43.75</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>44.25</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>44.5</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>44.75</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45.25</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45.5</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45.75</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>46.25</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>46.5</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>46.75</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>47.25</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>47.5</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>47.75</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>48</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$20:$GK$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000024-9806-4AC5-9F07-8818AAE96F4A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sim15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$1:$GK$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                      <c:pt idx="0">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.25</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.75</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>6.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>6.75</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7.75</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8.25</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8.75</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>9.25</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9.75</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10.25</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10.75</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>11.25</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>11.75</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>12.25</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>12.75</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>13.25</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>13.75</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>14.25</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>14.75</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>15.25</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>15.75</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>16.25</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>16.75</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>17.25</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>17.75</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>18.25</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>18.75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>19.25</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>19.75</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>20.25</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>20.75</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>21.25</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>21.75</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>22.25</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>23.25</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>23.75</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>24.25</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>24.75</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>25.25</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>25.75</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>26.25</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>26.75</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>27.25</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>27.75</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>28.25</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>28.75</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>29.25</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>29.75</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>30.25</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>30.5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>30.75</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>31.25</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>31.5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>31.75</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>32.25</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>32.5</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>32.75</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>33.25</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>33.5</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>33.75</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>34.25</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>34.5</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>34.75</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>35.25</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>35.75</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>36.25</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>36.5</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>36.75</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>37.25</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>37.5</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>37.75</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>38.25</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>38.5</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>38.75</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>39.25</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>39.5</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>39.75</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>40.25</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>40.5</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>40.75</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>41.25</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>41.5</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>41.75</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>42.25</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>42.5</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>42.75</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>43.25</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>43.5</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>43.75</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>44.25</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>44.5</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>44.75</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45.25</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45.5</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45.75</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>46.25</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>46.5</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>46.75</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>47.25</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>47.5</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>47.75</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>48</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Curvas de Demanda Feeder'!$B$21:$GK$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="192"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000025-9806-4AC5-9F07-8818AAE96F4A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -23848,7 +23897,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5500"/>
-          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -31754,15 +31802,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>169813</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>164550</xdr:rowOff>
+      <xdr:colOff>113369</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:colOff>155223</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31794,16 +31842,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>351064</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>318406</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>118385</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31837,16 +31885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>70339</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:rowOff>23447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>11723</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>550985</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>105507</xdr:rowOff>
+      <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32139,11 +32187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32374,7 +32422,7 @@
         <v>0.45</v>
       </c>
       <c r="Z2" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B2:Y2)</f>
+        <f t="shared" ref="Z2:Z14" si="0">_xlfn.TEXTJOIN(", ",0,B2:Y2)</f>
         <v>0.625, 0.625, 0.725, 0.7, 0.9, 0.625, 0.324999999999999, 0.35, 0.1, 0, 0.15, -0.25, -0.575, -0.65, -0.625, -0.6, -0.449999999999999, 0, 0.449999999999999, 0.725, 0.525, 0.475, 0.5, 0.45</v>
       </c>
       <c r="AA2" s="3">
@@ -32501,7 +32549,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="Z3" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B3:Y3)</f>
+        <f t="shared" si="0"/>
         <v>0.6, 0.6, 0.425, 0.5, 0.774999999999999, 0.675, 0.4, 0.175, 0, -0.45, -0.55, -0.55, -0.85, -0.825, -0.775, -0.525, -0.375, -0.05, 0.675, 0.8, 0.75, 0.525, 0.475, 0.575</v>
       </c>
       <c r="AA3" s="2">
@@ -32556,7 +32604,7 @@
         <v>17</v>
       </c>
       <c r="Z4" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B4:Y4)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">, , , , , , , , , , , , , , , , , , , , , , , </v>
       </c>
       <c r="AD4" s="2"/>
@@ -32664,7 +32712,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Z5" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B5:Y5)</f>
+        <f t="shared" si="0"/>
         <v>0.6, 0.6, 0.775, 0.425, 0.125, 0, 0.025, 0.45, 0.45, 0.075, -0.274999999999999, -0.575, -0.4, -0.425, -0.475, -0.45, -0.3, 0.025, 0.325, 0.5, 0.375, 0.375, 0.475, 0.675</v>
       </c>
       <c r="AA5" s="3">
@@ -32791,7 +32839,7 @@
         <v>0.5</v>
       </c>
       <c r="Z6" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B6:Y6)</f>
+        <f t="shared" si="0"/>
         <v>0.199999999999999, 0.199999999999999, 0.35, 0.25, 0.075, 0.25, 0.25, -0.15, -0.125, -0.35, -0.8, -0.925, -0.925, -0.85, -0.825, -0.825, -0.575, 0.0249999999999999, 0.625, 0.9, 0.75, 0.649999999999999, 0.6, 0.5</v>
       </c>
       <c r="AA6" s="2">
@@ -32918,7 +32966,7 @@
         <v>0.45</v>
       </c>
       <c r="Z7" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B7:Y7)</f>
+        <f t="shared" si="0"/>
         <v>0.199999999999999, 0.199999999999999, 0.25, 0.075, 0.2, 0.25, 0.224999999999999, 0.575, 0.45, -0.2, -0.525, -0.625, -0.725, -0.625, -0.675, -0.625, -0.375, 0.025, 0.425, 0.675, 0.525, 0.525, 0.5, 0.45</v>
       </c>
       <c r="AA7" s="1">
@@ -33045,7 +33093,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="Z8" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B8:Y8)</f>
+        <f t="shared" si="0"/>
         <v>0.25, 0.25, 0.125, 0.125, 0.175, 0.15, 0.025, -0.075, 0.05, -0.275, -0.65, -0.775, -0.825, -0.675, -0.725, -0.7, -0.4, 0.1, 0.725, 0.9, 0.85, 0.7, 0.575, 0.475</v>
       </c>
       <c r="AA8" s="3">
@@ -33172,7 +33220,7 @@
         <v>0.5</v>
       </c>
       <c r="Z9" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B9:Y9)</f>
+        <f t="shared" si="0"/>
         <v>0.275, 0.275, 0.15, 0.125, 0.175, 0.175, 0.0249999999999999, -0.075, 0.075, -0.3, -0.7, -0.85, -0.875, -0.725, -0.774999999999999, -0.75, -0.475, 0.1, 0.75, 0.975, 0.899999999999999, 0.75, 0.625, 0.5</v>
       </c>
       <c r="AA9" s="2">
@@ -33299,7 +33347,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Z10" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B10:Y10)</f>
+        <f t="shared" si="0"/>
         <v>0.324999999999999, 0.324999999999999, 0.2, 0.2, 0.224999999999999, 0.224999999999999, 0.0999999999999999, 0, 0.15, -0.199999999999999, -0.575, -0.7, -0.75, -0.6, -0.65, -0.6, -0.325, 0.199999999999999, 0.774999999999999, 0.975, 0.925, 0.774999999999999, 0.649999999999999, 0.55</v>
       </c>
       <c r="AA10" s="2">
@@ -33426,7 +33474,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="Z11" t="str">
-        <f>_xlfn.TEXTJOIN(", ",0,B11:Y11)</f>
+        <f t="shared" si="0"/>
         <v>0.175, 0.175, 0.05, 0.025, 0.1, 0.075, -0.075, -0.175, -0.05, -0.4, -0.825, -0.95, -0.925, -0.85, -0.875, -0.85, -0.575, 0.025, 0.675, 0.875, 0.8, 0.65, 0.5, 0.425</v>
       </c>
       <c r="AA11" s="3">
@@ -33482,11 +33530,19 @@
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, , , , , , , , , , , , , , , , , , , , , , , </v>
+      </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, , , , , , , , , , , , , , , , , , , , , , , </v>
+      </c>
     </row>
     <row r="14" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -33563,6 +33619,10 @@
       </c>
       <c r="Y14" s="3">
         <v>0.375</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.225, 0.225, 0.1, 0.15, 0.1, 0.15, 0, -0.125, -0.025, -0.35, -0.75, -0.875, -0.9, -0.8, -0.85, -0.825, -0.55, -0.0499999999999999, 0.525, 0.7, 0.649999999999999, 0.55, 0.45, 0.375</v>
       </c>
       <c r="AA14" s="3">
         <v>2200</v>
@@ -33638,8 +33698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C428DBF-3E54-4B2E-A2A9-DBFE3A15C00F}">
   <dimension ref="A1:GK21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:GK19"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35395,580 +35455,580 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>4506.6099999999997</v>
+        <v>4118.5199999999904</v>
       </c>
       <c r="C4">
-        <v>4327.8999999999996</v>
+        <v>3949.72</v>
       </c>
       <c r="D4">
-        <v>4182.2299999999996</v>
+        <v>3798.44</v>
       </c>
       <c r="E4">
-        <v>4313.34</v>
+        <v>3933.16</v>
       </c>
       <c r="F4">
-        <v>4229.9399999999996</v>
+        <v>3849.3999999999901</v>
       </c>
       <c r="G4">
-        <v>4171.8500000000004</v>
+        <v>3798.93</v>
       </c>
       <c r="H4">
-        <v>4188.1099999999997</v>
+        <v>3816.24</v>
       </c>
       <c r="I4">
-        <v>4253</v>
+        <v>3865.8</v>
       </c>
       <c r="J4">
-        <v>4134.3599999999997</v>
+        <v>3757.16</v>
       </c>
       <c r="K4">
-        <v>4154.29</v>
+        <v>3775.63</v>
       </c>
       <c r="L4">
-        <v>4059.26999999999</v>
+        <v>3675.16</v>
       </c>
       <c r="M4">
-        <v>3904.39</v>
+        <v>3516.92</v>
       </c>
       <c r="N4">
-        <v>3940.1099999999901</v>
+        <v>3556.96</v>
       </c>
       <c r="O4">
-        <v>3844.05</v>
+        <v>3449.91</v>
       </c>
       <c r="P4">
-        <v>4066.13</v>
+        <v>3680.6</v>
       </c>
       <c r="Q4">
-        <v>4018.74</v>
+        <v>3639.94</v>
       </c>
       <c r="R4">
-        <v>3966.48</v>
+        <v>3575.2</v>
       </c>
       <c r="S4">
-        <v>4135.5199999999904</v>
+        <v>3745.27</v>
       </c>
       <c r="T4">
-        <v>3993.16</v>
+        <v>3602.62</v>
       </c>
       <c r="U4">
-        <v>4050.91</v>
+        <v>3663.83</v>
       </c>
       <c r="V4">
-        <v>3996.1</v>
+        <v>3609.74999999999</v>
       </c>
       <c r="W4">
-        <v>4120.43</v>
+        <v>3740</v>
       </c>
       <c r="X4">
-        <v>4076.34</v>
+        <v>3696.29</v>
       </c>
       <c r="Y4">
-        <v>3906.41</v>
+        <v>3537.77</v>
       </c>
       <c r="Z4">
-        <v>4066.05</v>
+        <v>3699.22999999999</v>
       </c>
       <c r="AA4">
-        <v>4104.7299999999996</v>
+        <v>3738.16</v>
       </c>
       <c r="AB4">
-        <v>3742.75</v>
+        <v>1494.011</v>
       </c>
       <c r="AC4">
-        <v>3879.18</v>
+        <v>1635.886</v>
       </c>
       <c r="AD4">
-        <v>3988.69</v>
+        <v>1745.6399999999901</v>
       </c>
       <c r="AE4">
-        <v>3633</v>
+        <v>-473.16300000000001</v>
       </c>
       <c r="AF4">
-        <v>3716.1899999999901</v>
+        <v>-418.96799999999899</v>
       </c>
       <c r="AG4">
-        <v>3929.22</v>
+        <v>-209.78729999999999</v>
       </c>
       <c r="AH4">
-        <v>3814.24</v>
+        <v>-349.9325</v>
       </c>
       <c r="AI4">
-        <v>3917.77</v>
+        <v>-254.117199999999</v>
       </c>
       <c r="AJ4">
-        <v>3934.18</v>
+        <v>-1809.0119999999999</v>
       </c>
       <c r="AK4">
-        <v>4175.96</v>
+        <v>-1569.9690000000001</v>
       </c>
       <c r="AL4">
-        <v>4118.5</v>
+        <v>-1650.8119999999999</v>
       </c>
       <c r="AM4">
-        <v>3743.63</v>
+        <v>-5145.26</v>
       </c>
       <c r="AN4">
-        <v>3573.22</v>
+        <v>-5318.84</v>
       </c>
       <c r="AO4">
-        <v>3600.79</v>
+        <v>-5302.65</v>
       </c>
       <c r="AP4">
-        <v>3757.22</v>
+        <v>-5148.54</v>
       </c>
       <c r="AQ4">
-        <v>3719.99</v>
+        <v>-5180.6400000000003</v>
       </c>
       <c r="AR4">
-        <v>3264.7599999999902</v>
+        <v>-9894.3799999999992</v>
       </c>
       <c r="AS4">
-        <v>3233.5</v>
+        <v>-9922.5</v>
       </c>
       <c r="AT4">
-        <v>3178.92</v>
+        <v>-9985.7900000000009</v>
       </c>
       <c r="AU4">
-        <v>3120.76</v>
+        <v>-11154.9</v>
       </c>
       <c r="AV4">
-        <v>3055.1190000000001</v>
+        <v>-11215.96</v>
       </c>
       <c r="AW4">
-        <v>2935.3180000000002</v>
+        <v>-11322.68</v>
       </c>
       <c r="AX4">
-        <v>3181.39</v>
+        <v>-11087.449999999901</v>
       </c>
       <c r="AY4">
-        <v>3140.8099999999899</v>
+        <v>-11127.91</v>
       </c>
       <c r="AZ4">
-        <v>3045.3780000000002</v>
+        <v>-11950.84</v>
       </c>
       <c r="BA4">
-        <v>2967.3589999999999</v>
+        <v>-12023.67</v>
       </c>
       <c r="BB4">
-        <v>3055.212</v>
+        <v>-11925</v>
       </c>
       <c r="BC4">
-        <v>3138.18</v>
+        <v>-11841.93</v>
       </c>
       <c r="BD4">
-        <v>3494.6</v>
+        <v>-11518.64</v>
       </c>
       <c r="BE4">
-        <v>3378.97</v>
+        <v>-11634.75</v>
       </c>
       <c r="BF4">
-        <v>3283.26999999999</v>
+        <v>-11718.45</v>
       </c>
       <c r="BG4">
-        <v>3215.05</v>
+        <v>-11778.8</v>
       </c>
       <c r="BH4">
-        <v>3204.13</v>
+        <v>-11949.63</v>
       </c>
       <c r="BI4">
-        <v>3226.5</v>
+        <v>-11929.77</v>
       </c>
       <c r="BJ4">
-        <v>3123.58</v>
+        <v>-12021.9</v>
       </c>
       <c r="BK4">
-        <v>3256.08</v>
+        <v>-11515.49</v>
       </c>
       <c r="BL4">
-        <v>3254.63</v>
+        <v>-11514.25</v>
       </c>
       <c r="BM4">
-        <v>3307.52</v>
+        <v>-11469.64</v>
       </c>
       <c r="BN4">
-        <v>3274.63</v>
+        <v>-11517.029999999901</v>
       </c>
       <c r="BO4">
-        <v>3230.26</v>
+        <v>-11569.26</v>
       </c>
       <c r="BP4">
-        <v>3506.9399999999901</v>
+        <v>-8676.8799999999992</v>
       </c>
       <c r="BQ4">
-        <v>3553.08</v>
+        <v>-8630.11</v>
       </c>
       <c r="BR4">
-        <v>3593.22</v>
+        <v>-8611.44</v>
       </c>
       <c r="BS4">
-        <v>4146.6000000000004</v>
+        <v>-3442.87</v>
       </c>
       <c r="BT4">
-        <v>4084.72</v>
+        <v>-3496.95</v>
       </c>
       <c r="BU4">
-        <v>4072.5699999999902</v>
+        <v>-3509.24</v>
       </c>
       <c r="BV4">
-        <v>4376.7199999999903</v>
+        <v>-3192.72</v>
       </c>
       <c r="BW4">
-        <v>4419.0599999999904</v>
+        <v>-3145.5810000000001</v>
       </c>
       <c r="BX4">
-        <v>5076.67</v>
+        <v>2716.5360000000001</v>
       </c>
       <c r="BY4">
-        <v>5079.47</v>
+        <v>2737.5119999999902</v>
       </c>
       <c r="BZ4">
-        <v>4939.42</v>
+        <v>2622.768</v>
       </c>
       <c r="CA4">
-        <v>5228.83</v>
+        <v>4729.34</v>
       </c>
       <c r="CB4">
-        <v>5300.59</v>
+        <v>4821.78</v>
       </c>
       <c r="CC4">
-        <v>5235.12</v>
+        <v>4754.63</v>
       </c>
       <c r="CD4">
-        <v>5201.78</v>
+        <v>4727.6099999999997</v>
       </c>
       <c r="CE4">
-        <v>5165.34</v>
+        <v>4692.8099999999904</v>
       </c>
       <c r="CF4">
-        <v>5145.3599999999997</v>
+        <v>4682.0599999999904</v>
       </c>
       <c r="CG4">
-        <v>5290.75</v>
+        <v>4843.13</v>
       </c>
       <c r="CH4">
-        <v>5111.26</v>
+        <v>4664.32</v>
       </c>
       <c r="CI4">
-        <v>5037.7</v>
+        <v>4587.96</v>
       </c>
       <c r="CJ4">
-        <v>4905.1400000000003</v>
+        <v>4481.17</v>
       </c>
       <c r="CK4">
-        <v>4764.45</v>
+        <v>4364.95</v>
       </c>
       <c r="CL4">
-        <v>4865.34</v>
+        <v>4466.2299999999996</v>
       </c>
       <c r="CM4">
-        <v>4886.34</v>
+        <v>4495.87</v>
       </c>
       <c r="CN4">
-        <v>4788.5200000000004</v>
+        <v>4411.51</v>
       </c>
       <c r="CO4">
-        <v>4743.93</v>
+        <v>4363.84</v>
       </c>
       <c r="CP4">
-        <v>4656.75</v>
+        <v>4279.6399999999903</v>
       </c>
       <c r="CQ4">
-        <v>4701.6499999999996</v>
+        <v>4319.07</v>
       </c>
       <c r="CR4">
-        <v>4599.8599999999997</v>
+        <v>4214.25</v>
       </c>
       <c r="CS4">
-        <v>4586.2299999999996</v>
+        <v>4201.74</v>
       </c>
       <c r="CT4">
-        <v>4506.6499999999996</v>
+        <v>4118.55</v>
       </c>
       <c r="CU4">
-        <v>4327.8999999999996</v>
+        <v>3949.72</v>
       </c>
       <c r="CV4">
-        <v>4182.2299999999996</v>
+        <v>3798.44</v>
       </c>
       <c r="CW4">
-        <v>4313.34</v>
+        <v>3933.16</v>
       </c>
       <c r="CX4">
-        <v>4229.9399999999996</v>
+        <v>3849.3999999999901</v>
       </c>
       <c r="CY4">
-        <v>4171.8500000000004</v>
+        <v>3798.93</v>
       </c>
       <c r="CZ4">
-        <v>4188.1099999999997</v>
+        <v>3816.24</v>
       </c>
       <c r="DA4">
-        <v>4253</v>
+        <v>3865.8</v>
       </c>
       <c r="DB4">
-        <v>4134.3599999999997</v>
+        <v>3757.16</v>
       </c>
       <c r="DC4">
-        <v>4154.29</v>
+        <v>3775.63</v>
       </c>
       <c r="DD4">
-        <v>4059.26999999999</v>
+        <v>3675.16</v>
       </c>
       <c r="DE4">
-        <v>3904.39</v>
+        <v>3516.92</v>
       </c>
       <c r="DF4">
-        <v>3940.1099999999901</v>
+        <v>3556.96</v>
       </c>
       <c r="DG4">
-        <v>3844.05</v>
+        <v>3449.91</v>
       </c>
       <c r="DH4">
-        <v>4066.13</v>
+        <v>3680.6</v>
       </c>
       <c r="DI4">
-        <v>4018.74</v>
+        <v>3639.94</v>
       </c>
       <c r="DJ4">
-        <v>3966.48</v>
+        <v>3575.2</v>
       </c>
       <c r="DK4">
-        <v>4135.5199999999904</v>
+        <v>3745.27</v>
       </c>
       <c r="DL4">
-        <v>3993.16</v>
+        <v>3602.62</v>
       </c>
       <c r="DM4">
-        <v>4050.91</v>
+        <v>3663.83</v>
       </c>
       <c r="DN4">
-        <v>3996.1</v>
+        <v>3609.74999999999</v>
       </c>
       <c r="DO4">
-        <v>4120.43</v>
+        <v>3740</v>
       </c>
       <c r="DP4">
-        <v>4076.34</v>
+        <v>3696.29</v>
       </c>
       <c r="DQ4">
-        <v>3906.41</v>
+        <v>3537.77</v>
       </c>
       <c r="DR4">
-        <v>4066.05</v>
+        <v>3699.22999999999</v>
       </c>
       <c r="DS4">
-        <v>4104.7299999999996</v>
+        <v>3738.16</v>
       </c>
       <c r="DT4">
-        <v>3742.75</v>
+        <v>1494.011</v>
       </c>
       <c r="DU4">
-        <v>3879.18</v>
+        <v>1635.886</v>
       </c>
       <c r="DV4">
-        <v>3988.69</v>
+        <v>1745.6399999999901</v>
       </c>
       <c r="DW4">
-        <v>3633</v>
+        <v>-473.16300000000001</v>
       </c>
       <c r="DX4">
-        <v>3716.1899999999901</v>
+        <v>-418.96799999999899</v>
       </c>
       <c r="DY4">
-        <v>3929.22</v>
+        <v>-209.78729999999999</v>
       </c>
       <c r="DZ4">
-        <v>3814.24</v>
+        <v>-349.9325</v>
       </c>
       <c r="EA4">
-        <v>3917.77</v>
+        <v>-254.117199999999</v>
       </c>
       <c r="EB4">
-        <v>3934.18</v>
+        <v>-1809.0119999999999</v>
       </c>
       <c r="EC4">
-        <v>4175.96</v>
+        <v>-1569.9690000000001</v>
       </c>
       <c r="ED4">
-        <v>4118.5</v>
+        <v>-1650.8119999999999</v>
       </c>
       <c r="EE4">
-        <v>3743.63</v>
+        <v>-5145.26</v>
       </c>
       <c r="EF4">
-        <v>3573.22</v>
+        <v>-5318.84</v>
       </c>
       <c r="EG4">
-        <v>3600.79</v>
+        <v>-5302.65</v>
       </c>
       <c r="EH4">
-        <v>3757.22</v>
+        <v>-5148.54</v>
       </c>
       <c r="EI4">
-        <v>3719.99</v>
+        <v>-5180.6400000000003</v>
       </c>
       <c r="EJ4">
-        <v>3264.7599999999902</v>
+        <v>-9894.3799999999992</v>
       </c>
       <c r="EK4">
-        <v>3233.5</v>
+        <v>-9922.5</v>
       </c>
       <c r="EL4">
-        <v>3178.92</v>
+        <v>-9985.7900000000009</v>
       </c>
       <c r="EM4">
-        <v>3120.76</v>
+        <v>-11154.9</v>
       </c>
       <c r="EN4">
-        <v>3055.1190000000001</v>
+        <v>-11215.96</v>
       </c>
       <c r="EO4">
-        <v>2935.3180000000002</v>
+        <v>-11322.68</v>
       </c>
       <c r="EP4">
-        <v>3181.39</v>
+        <v>-11087.449999999901</v>
       </c>
       <c r="EQ4">
-        <v>3140.8099999999899</v>
+        <v>-11127.91</v>
       </c>
       <c r="ER4">
-        <v>3045.3780000000002</v>
+        <v>-11950.84</v>
       </c>
       <c r="ES4">
-        <v>2967.3589999999999</v>
+        <v>-12023.67</v>
       </c>
       <c r="ET4">
-        <v>3055.212</v>
+        <v>-11925</v>
       </c>
       <c r="EU4">
-        <v>3138.18</v>
+        <v>-11841.93</v>
       </c>
       <c r="EV4">
-        <v>3494.6</v>
+        <v>-11518.64</v>
       </c>
       <c r="EW4">
-        <v>3378.97</v>
+        <v>-11634.75</v>
       </c>
       <c r="EX4">
-        <v>3283.26999999999</v>
+        <v>-11718.45</v>
       </c>
       <c r="EY4">
-        <v>3215.05</v>
+        <v>-11778.8</v>
       </c>
       <c r="EZ4">
-        <v>3204.13</v>
+        <v>-11949.63</v>
       </c>
       <c r="FA4">
-        <v>3226.5</v>
+        <v>-11929.77</v>
       </c>
       <c r="FB4">
-        <v>3123.58</v>
+        <v>-12021.9</v>
       </c>
       <c r="FC4">
-        <v>3256.08</v>
+        <v>-11515.49</v>
       </c>
       <c r="FD4">
-        <v>3254.63</v>
+        <v>-11514.25</v>
       </c>
       <c r="FE4">
-        <v>3307.52</v>
+        <v>-11469.64</v>
       </c>
       <c r="FF4">
-        <v>3274.63</v>
+        <v>-11517.029999999901</v>
       </c>
       <c r="FG4">
-        <v>3230.26</v>
+        <v>-11569.26</v>
       </c>
       <c r="FH4">
-        <v>3506.9399999999901</v>
+        <v>-8676.8799999999992</v>
       </c>
       <c r="FI4">
-        <v>3553.08</v>
+        <v>-8630.11</v>
       </c>
       <c r="FJ4">
-        <v>3593.22</v>
+        <v>-8611.44</v>
       </c>
       <c r="FK4">
-        <v>4146.6000000000004</v>
+        <v>-3442.87</v>
       </c>
       <c r="FL4">
-        <v>4084.72</v>
+        <v>-3496.95</v>
       </c>
       <c r="FM4">
-        <v>4072.5699999999902</v>
+        <v>-3509.24</v>
       </c>
       <c r="FN4">
-        <v>4376.7199999999903</v>
+        <v>-3192.72</v>
       </c>
       <c r="FO4">
-        <v>4419.0599999999904</v>
+        <v>-3145.5810000000001</v>
       </c>
       <c r="FP4">
-        <v>5076.67</v>
+        <v>2716.5360000000001</v>
       </c>
       <c r="FQ4">
-        <v>5079.47</v>
+        <v>2737.5119999999902</v>
       </c>
       <c r="FR4">
-        <v>4939.42</v>
+        <v>2622.768</v>
       </c>
       <c r="FS4">
-        <v>5228.83</v>
+        <v>4729.34</v>
       </c>
       <c r="FT4">
-        <v>5300.59</v>
+        <v>4821.78</v>
       </c>
       <c r="FU4">
-        <v>5235.12</v>
+        <v>4754.63</v>
       </c>
       <c r="FV4">
-        <v>5201.78</v>
+        <v>4727.6099999999997</v>
       </c>
       <c r="FW4">
-        <v>5165.34</v>
+        <v>4692.8099999999904</v>
       </c>
       <c r="FX4">
-        <v>5145.3599999999997</v>
+        <v>4682.0599999999904</v>
       </c>
       <c r="FY4">
-        <v>5290.75</v>
+        <v>4843.13</v>
       </c>
       <c r="FZ4">
-        <v>5111.26</v>
+        <v>4664.32</v>
       </c>
       <c r="GA4">
-        <v>5037.7</v>
+        <v>4587.96</v>
       </c>
       <c r="GB4">
-        <v>4905.1400000000003</v>
+        <v>4481.17</v>
       </c>
       <c r="GC4">
-        <v>4764.45</v>
+        <v>4364.95</v>
       </c>
       <c r="GD4">
-        <v>4865.34</v>
+        <v>4466.2299999999996</v>
       </c>
       <c r="GE4">
-        <v>4886.34</v>
+        <v>4495.87</v>
       </c>
       <c r="GF4">
-        <v>4788.5200000000004</v>
+        <v>4411.51</v>
       </c>
       <c r="GG4">
-        <v>4743.93</v>
+        <v>4363.84</v>
       </c>
       <c r="GH4">
-        <v>4656.75</v>
+        <v>4279.6399999999903</v>
       </c>
       <c r="GI4">
-        <v>4701.6499999999996</v>
+        <v>4319.07</v>
       </c>
       <c r="GJ4">
-        <v>4599.8599999999997</v>
+        <v>4214.25</v>
       </c>
       <c r="GK4">
-        <v>4586.2299999999996</v>
+        <v>4201.74</v>
       </c>
     </row>
     <row r="5" spans="1:193" x14ac:dyDescent="0.3">
@@ -42979,8 +43039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EB8390-1CEE-44FB-81EE-F636E4ADA009}">
   <dimension ref="A1:JX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:IE13"/>
+    <sheetView zoomScale="65" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
